--- a/storage/app/public/input data/caseloads/lcb.xlsx
+++ b/storage/app/public/input data/caseloads/lcb.xlsx
@@ -1,31 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\database\storage\app\public\caseloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/caseloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCB06251-32E5-43B5-B8F4-7CDDB4A34F9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={87754416-2D45-451A-90E7-6F455BE6C42D}</author>
+    <author>tc={06B4BC40-0141-4FDB-87C0-BC00CF03F352}</author>
+    <author>tc={C384A644-9C6D-48A4-B1F7-0EA422A846B2}</author>
+    <author>tc={7976DEF2-05C5-4538-ABA7-D35ED58C3473}</author>
+    <author>tc={55AABBCF-0FFF-4F83-9393-24087E5C1DF1}</author>
+    <author>tc={218147BD-C745-47DE-B606-4D1CD438BE9F}</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{87754416-2D45-451A-90E7-6F455BE6C42D}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    PIN for BAY states</t>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{06B4BC40-0141-4FDB-87C0-BC00CF03F352}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Target for BAY states</t>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{C384A644-9C6D-48A4-B1F7-0EA422A846B2}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    PIN for BAY States</t>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="3" shapeId="0" xr:uid="{7976DEF2-05C5-4538-ABA7-D35ED58C3473}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Target for BAY States</t>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="4" shapeId="0" xr:uid="{55AABBCF-0FFF-4F83-9393-24087E5C1DF1}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    PIN for BAY States</t>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="5" shapeId="0" xr:uid="{218147BD-C745-47DE-B606-4D1CD438BE9F}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Target for BAY States</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>Country</t>
   </si>
@@ -60,9 +131,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -115,13 +183,26 @@
   </si>
   <si>
     <t>NG02</t>
+  </si>
+  <si>
+    <t>Tchad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,19 +228,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,9 +269,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ndeye Fatou Dieme" id="{D58DD69E-6B9F-4617-907F-910F17572D56}" userId="S::ndeye.dieme@un.org::995f4254-05c3-45f3-b700-ab4fd2704679" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J31" totalsRowShown="0">
+  <autoFilter ref="A1:J31" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Diffa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{594076F3-52C5-4F4D-87D8-6757CB8DC572}" name="Country"/>
     <tableColumn id="2" xr3:uid="{CBF2065D-E791-43E6-ABC3-D697932CF83D}" name="Country_Iso3"/>
@@ -454,12 +561,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G10" dT="2021-03-02T17:14:02.35" personId="{D58DD69E-6B9F-4617-907F-910F17572D56}" id="{87754416-2D45-451A-90E7-6F455BE6C42D}">
+    <text>PIN for BAY states</text>
+  </threadedComment>
+  <threadedComment ref="H10" dT="2021-03-02T17:14:18.60" personId="{D58DD69E-6B9F-4617-907F-910F17572D56}" id="{06B4BC40-0141-4FDB-87C0-BC00CF03F352}">
+    <text>Target for BAY states</text>
+  </threadedComment>
+  <threadedComment ref="G16" dT="2021-03-02T17:17:34.03" personId="{D58DD69E-6B9F-4617-907F-910F17572D56}" id="{C384A644-9C6D-48A4-B1F7-0EA422A846B2}">
+    <text>PIN for BAY States</text>
+  </threadedComment>
+  <threadedComment ref="H16" dT="2021-03-02T17:17:48.50" personId="{D58DD69E-6B9F-4617-907F-910F17572D56}" id="{7976DEF2-05C5-4538-ABA7-D35ED58C3473}">
+    <text>Target for BAY States</text>
+  </threadedComment>
+  <threadedComment ref="G22" dT="2021-03-02T17:22:46.56" personId="{D58DD69E-6B9F-4617-907F-910F17572D56}" id="{55AABBCF-0FFF-4F83-9393-24087E5C1DF1}">
+    <text>PIN for BAY States</text>
+  </threadedComment>
+  <threadedComment ref="H22" dT="2021-03-02T17:23:03.55" personId="{D58DD69E-6B9F-4617-907F-910F17572D56}" id="{218147BD-C745-47DE-B606-4D1CD438BE9F}">
+    <text>Target for BAY States</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,18 +638,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -540,18 +670,18 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -574,16 +704,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -604,18 +734,18 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -636,18 +766,18 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -668,18 +798,18 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -700,10 +830,812 @@
         <v>43754</v>
       </c>
     </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>993864</v>
+      </c>
+      <c r="H8" s="2">
+        <v>779908</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>517798</v>
+      </c>
+      <c r="H9" s="2">
+        <v>398257</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7900000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5900000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2">
+        <v>366680</v>
+      </c>
+      <c r="H13" s="2">
+        <v>311531</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3">
+        <v>993864</v>
+      </c>
+      <c r="H14" s="3">
+        <v>779908</v>
+      </c>
+      <c r="J14" s="1">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>531235</v>
+      </c>
+      <c r="H15" s="2">
+        <v>402643</v>
+      </c>
+      <c r="J15" s="1">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10600000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7800000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="1">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="1">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3">
+        <v>367000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>312000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>993864</v>
+      </c>
+      <c r="H20" s="3">
+        <v>779908</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2">
+        <v>531235</v>
+      </c>
+      <c r="H21" s="2">
+        <v>402643</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10600000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7800000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3">
+        <v>367000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>312000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1200266.79</v>
+      </c>
+      <c r="H26" s="3">
+        <v>950635</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2">
+        <v>292139</v>
+      </c>
+      <c r="H27" s="2">
+        <v>322467</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2230000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1443000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3295000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2581000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1743000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2">
+        <v>389875</v>
+      </c>
+      <c r="H31" s="2">
+        <v>378523</v>
+      </c>
+      <c r="J31" s="1">
+        <v>44222</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="J14:J19">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(J14)=MONTH(EDATE(TODAY(),0-1)),YEAR(J14)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+    <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d04cdad-faad-4bbc-9725-fbca26071bed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC77710-C21E-4982-A067-C0EB3387D213}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <ds:schemaRef ds:uri="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B020AB-1979-4CF4-9578-9E7259496776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA285DB-A149-401B-9228-2545A285123A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/storage/app/public/input data/caseloads/lcb.xlsx
+++ b/storage/app/public/input data/caseloads/lcb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/caseloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCB06251-32E5-43B5-B8F4-7CDDB4A34F9B}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{040B94F5-0F64-469A-987C-B6C34C32456B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,9 +278,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J31" totalsRowShown="0">
   <autoFilter ref="A1:J31" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Diffa"/>
+        <filter val="Nigeria"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -589,7 +594,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C27"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +707,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -853,7 +858,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -876,7 +881,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -899,7 +904,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -918,7 +923,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -983,7 +988,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1053,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>

--- a/storage/app/public/input data/caseloads/lcb.xlsx
+++ b/storage/app/public/input data/caseloads/lcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/caseloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{040B94F5-0F64-469A-987C-B6C34C32456B}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F599665-AE21-4CBF-9A2E-BB59F84668E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2688" windowWidth="23040" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
   <si>
     <t>Country</t>
   </si>
@@ -276,16 +276,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J31" totalsRowShown="0">
-  <autoFilter ref="A1:J31" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}">
-    <filterColumn colId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J37" totalsRowShown="0">
+  <autoFilter ref="A1:J37" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Nigeria"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <dateGroupItem year="2020" dateTimeGrouping="year"/>
+        <filter val="Extreme-Nord"/>
+        <filter val="Extrême-Nord"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -591,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C2" sqref="C2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -835,7 +831,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -881,7 +877,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -904,7 +900,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -923,7 +919,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -965,7 +961,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1007,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1049,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1137,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1160,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1361,6 +1357,144 @@
       </c>
       <c r="J31" s="1">
         <v>44222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>1200266.79</v>
+      </c>
+      <c r="H32">
+        <v>950635</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>292139</v>
+      </c>
+      <c r="H33">
+        <v>322467</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>2230000</v>
+      </c>
+      <c r="H34">
+        <v>1443000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>3890000</v>
+      </c>
+      <c r="H35">
+        <v>3295000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>2581000</v>
+      </c>
+      <c r="H36">
+        <v>1743000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>389875</v>
+      </c>
+      <c r="H37">
+        <v>378523</v>
+      </c>
+      <c r="J37" s="1">
+        <v>44278</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/input data/caseloads/lcb.xlsx
+++ b/storage/app/public/input data/caseloads/lcb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/caseloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F599665-AE21-4CBF-9A2E-BB59F84668E9}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{253F018A-304F-49D7-8B07-1DA67E5EA87D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2688" windowWidth="23040" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="1536" windowWidth="22884" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Tchad</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>HRP</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,10 @@
     <cellStyle name="Milliers [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -276,16 +285,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:J37" totalsRowShown="0">
-  <autoFilter ref="A1:J37" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Extreme-Nord"/>
-        <filter val="Extrême-Nord"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:K37" totalsRowShown="0">
+  <autoFilter ref="A1:K37" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{594076F3-52C5-4F4D-87D8-6757CB8DC572}" name="Country"/>
     <tableColumn id="2" xr3:uid="{CBF2065D-E791-43E6-ABC3-D697932CF83D}" name="Country_Iso3"/>
     <tableColumn id="3" xr3:uid="{BC3628CE-440E-49D9-81CC-C6E40657BE21}" name="Admin1_name"/>
@@ -295,7 +297,8 @@
     <tableColumn id="7" xr3:uid="{9FB4AA86-862C-4650-9E74-E6F8AB7C5B02}" name="People_in_need"/>
     <tableColumn id="8" xr3:uid="{6A669401-7064-442C-B28C-63A9FF0888F1}" name="People_targeted"/>
     <tableColumn id="9" xr3:uid="{025746CC-F599-4DAC-A9D7-4C294979CDD2}" name="People_reached"/>
-    <tableColumn id="10" xr3:uid="{FEA66360-662B-40D7-A391-58CB1ADA1AFF}" name="Date" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{FEA66360-662B-40D7-A391-58CB1ADA1AFF}" name="Date" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{59137878-38F2-4E5A-B3F4-CD7C13000837}" name="Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,10 +607,11 @@
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +642,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -670,8 +677,11 @@
       <c r="J2" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -702,8 +712,11 @@
       <c r="J3" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -734,8 +747,11 @@
       <c r="J4" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -766,8 +782,11 @@
       <c r="J5" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -798,8 +817,11 @@
       <c r="J6" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -830,8 +852,11 @@
       <c r="J7" s="1">
         <v>43754</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -853,8 +878,11 @@
       <c r="J8" s="1">
         <v>44011</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -876,8 +904,11 @@
       <c r="J9" s="1">
         <v>44011</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -899,8 +930,11 @@
       <c r="J10" s="1">
         <v>44011</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -918,8 +952,11 @@
       <c r="J11" s="1">
         <v>44011</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -937,8 +974,11 @@
       <c r="J12" s="1">
         <v>44011</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -960,8 +1000,11 @@
       <c r="J13" s="1">
         <v>44011</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -983,8 +1026,11 @@
       <c r="J14" s="1">
         <v>44088</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1052,11 @@
       <c r="J15" s="1">
         <v>44088</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1029,8 +1078,11 @@
       <c r="J16" s="1">
         <v>44088</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1048,8 +1100,11 @@
       <c r="J17" s="1">
         <v>44088</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1067,8 +1122,11 @@
       <c r="J18" s="1">
         <v>44088</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1090,8 +1148,11 @@
       <c r="J19" s="1">
         <v>44088</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1113,8 +1174,11 @@
       <c r="J20" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1200,11 @@
       <c r="J21" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1159,8 +1226,11 @@
       <c r="J22" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1178,8 +1248,11 @@
       <c r="J23" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1197,8 +1270,11 @@
       <c r="J24" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1220,8 +1296,11 @@
       <c r="J25" s="1">
         <v>44158</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1243,8 +1322,11 @@
       <c r="J26" s="1">
         <v>44222</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1266,8 +1348,11 @@
       <c r="J27" s="1">
         <v>44222</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1289,8 +1374,11 @@
       <c r="J28" s="1">
         <v>44270</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1312,8 +1400,11 @@
       <c r="J29" s="1">
         <v>44270</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1335,8 +1426,11 @@
       <c r="J30" s="1">
         <v>44270</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1358,8 +1452,11 @@
       <c r="J31" s="1">
         <v>44222</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1381,8 +1478,11 @@
       <c r="J32" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1404,8 +1504,11 @@
       <c r="J33" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1427,8 +1530,11 @@
       <c r="J34" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1556,11 @@
       <c r="J35" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1582,11 @@
       <c r="J36" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1496,10 +1608,13 @@
       <c r="J37" s="1">
         <v>44278</v>
       </c>
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J14:J19">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="2" priority="1" timePeriod="lastMonth">
       <formula>AND(MONTH(J14)=MONTH(EDATE(TODAY(),0-1)),YEAR(J14)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1512,6 +1627,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
     <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
@@ -1728,12 +1849,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1744,6 +1859,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B020AB-1979-4CF4-9578-9E7259496776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC77710-C21E-4982-A067-C0EB3387D213}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1762,15 +1886,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B020AB-1979-4CF4-9578-9E7259496776}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA285DB-A149-401B-9228-2545A285123A}">
   <ds:schemaRefs>

--- a/storage/app/public/input data/caseloads/lcb.xlsx
+++ b/storage/app/public/input data/caseloads/lcb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/caseloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IM ROWCA\Documents\Collecte de données\Base de Données\Caseloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{66F7D6D2-6BD9-45BA-A62C-684463D9957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{253F018A-304F-49D7-8B07-1DA67E5EA87D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8FACD8-82AA-4663-9922-37065C3B69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="1536" windowWidth="22884" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,13 +236,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers [0]" xfId="1" builtinId="6"/>
@@ -250,10 +250,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -286,7 +286,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED10DA4E-D105-481B-ACFC-A68C22FCFC16}" name="Tableau1" displayName="Tableau1" ref="A1:K37" totalsRowShown="0">
-  <autoFilter ref="A1:K37" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}"/>
+  <autoFilter ref="A1:K37" xr:uid="{3464EA4F-FC43-4D04-8195-39A8D46F9942}">
+    <filterColumn colId="9">
+      <filters>
+        <dateGroupItem year="2021" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{594076F3-52C5-4F4D-87D8-6757CB8DC572}" name="Country"/>
     <tableColumn id="2" xr3:uid="{CBF2065D-E791-43E6-ABC3-D697932CF83D}" name="Country_Iso3"/>
@@ -592,26 +598,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" customWidth="1"/>
+    <col min="9" max="9" width="16.46484375" customWidth="1"/>
+    <col min="10" max="10" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.53125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -681,7 +687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -716,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -751,7 +757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -786,7 +792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -821,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -856,7 +862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -882,7 +888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -908,7 +914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -934,7 +940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -956,7 +962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -978,7 +984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1314,19 +1320,19 @@
         <v>23</v>
       </c>
       <c r="G26" s="3">
-        <v>1200266.79</v>
+        <v>1213606.79</v>
       </c>
       <c r="H26" s="3">
         <v>950635</v>
       </c>
       <c r="J26" s="1">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="K26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1469,8 +1475,8 @@
       <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="G32">
-        <v>1200266.79</v>
+      <c r="G32" s="3">
+        <v>1213606.79</v>
       </c>
       <c r="H32">
         <v>950635</v>
@@ -1482,7 +1488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1627,14 +1633,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a1e73a9b9fb0b3500b2a0123903c0a2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c25a011f660a4a39b23cfc46f59a6f0a" ns2:_="" ns3:_="">
     <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
     <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
     <xsd:element name="properties">
@@ -1655,6 +1655,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1719,11 +1720,16 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1742,7 +1748,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1759,8 +1765,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1849,6 +1855,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1859,16 +1871,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B020AB-1979-4CF4-9578-9E7259496776}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC77710-C21E-4982-A067-C0EB3387D213}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AB3D201-40C7-421E-9613-38440818D2A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1886,6 +1889,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53B020AB-1979-4CF4-9578-9E7259496776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA285DB-A149-401B-9228-2545A285123A}">
   <ds:schemaRefs>
